--- a/jim/model_testing_assignment_jim.xlsx
+++ b/jim/model_testing_assignment_jim.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jleach1\Google Drive\retail_group\jim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -52,14 +56,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">InstantCoffee.csv</t>
+      <t>InstantCoffee.csv</t>
     </r>
     <r>
       <rPr>
@@ -69,7 +73,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">) inside the data folder of the project directory</t>
+      <t>) inside the data folder of the project directory</t>
     </r>
   </si>
   <si>
@@ -89,18 +93,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Run line 3 in the file (</t>
+      <t>Run line 3 in the file (</t>
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">source(“./r/analysis.R”)</t>
+      <t>source(“./r/analysis.R”)</t>
     </r>
     <r>
       <rPr>
@@ -114,14 +118,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">coffee_clean; heavy; light</t>
+      <t>coffee_clean; heavy; light</t>
     </r>
   </si>
   <si>
@@ -139,14 +143,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">log()</t>
+      <t>log()</t>
     </r>
   </si>
   <si>
@@ -159,11 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,22 +173,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -204,7 +190,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -212,229 +198,461 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6842105263158"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2631578947368"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="6.28515625"/>
+    <col min="2" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="30.7109375"/>
+    <col min="4" max="4" width="6.85546875"/>
+    <col min="5" max="5" width="8.5703125"/>
+    <col min="6" max="6" width="13.28515625"/>
+    <col min="7" max="7" width="123.5703125" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>174.7772</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2">
+        <v>193.10176000000001</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>710.2533</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3">
+        <v>190.80034000000001</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>173.1437</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="1">
+        <v>230.78298000000001</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>64.3017</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5">
+        <v>70.279750000000007</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>310.3147</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6">
+        <v>79.490939999999995</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>63.26026</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="1">
+        <v>75.414519999999996</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="0" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="0" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/jim/model_testing_assignment_jim.xlsx
+++ b/jim/model_testing_assignment_jim.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>users</t>
   </si>
@@ -30,141 +30,29 @@
     <t>Cross-validated Mean-Squared Error</t>
   </si>
   <si>
-    <t>If you want to use CV code I wrote you can follow:</t>
-  </si>
-  <si>
     <t>heavy</t>
   </si>
   <si>
     <t>level-level</t>
   </si>
   <si>
-    <t>jim</t>
-  </si>
-  <si>
-    <t>Copy and paste 06_cross_val_model_selection.R into your named folder</t>
-  </si>
-  <si>
     <t>Semi-log</t>
   </si>
   <si>
-    <t>julian</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ensure you have the data (named as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>InstantCoffee.csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>) inside the data folder of the project directory</t>
-    </r>
-  </si>
-  <si>
     <t>log-log</t>
   </si>
   <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>Open the R studio project in the root directory of the project folder (this sets your working directory)</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
-    <t>tina</t>
-  </si>
-  <si>
-    <r>
-      <t>Run line 3 in the file (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>source(“./r/analysis.R”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">), this should create 3 objects, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>coffee_clean; heavy; light</t>
-    </r>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>Change line 7 to be the users you want to model (i.e. either heavy or light)</t>
-  </si>
-  <si>
-    <t>jessica</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">At line 50, change the functional form of the model to be that you're working on: ie log-transform with </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>log()</t>
-    </r>
-  </si>
-  <si>
-    <t>Run the script from Step 1 onwards, it should compute a single average MSE that we can use to assess model quality.</t>
-  </si>
-  <si>
-    <t>Any questions let me know, I'll be online most/all of the day</t>
+    <t>vs best for group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,20 +61,31 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,17 +97,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,25 +391,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625"/>
     <col min="2" max="2" width="10.5703125"/>
-    <col min="3" max="3" width="30.7109375"/>
-    <col min="4" max="4" width="6.85546875"/>
-    <col min="5" max="5" width="8.5703125"/>
-    <col min="6" max="6" width="13.28515625"/>
-    <col min="7" max="7" width="123.5703125" customWidth="1"/>
-    <col min="8" max="1025" width="8.5703125"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625"/>
+    <col min="7" max="1024" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,141 +417,98 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>193.10176000000001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <f>1-C2/IF(A2="heavy",MIN($C$2:$C$4), MIN($C$5:$C$7))</f>
+        <v>-1.2061928191532623E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>190.80034000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D7" si="0">1-C3/IF(A3="heavy",MIN($C$2:$C$4), MIN($C$5:$C$7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>190.80034000000001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>230.78298000000001</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.20955224712911935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>70.279750000000007</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>70.279750000000007</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
       <c r="C6">
         <v>79.490939999999995</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13106463810699376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>75.414519999999996</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>22</v>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.3061870595726219E-2</v>
       </c>
     </row>
   </sheetData>
